--- a/analysis/Experiment2/Response Time Xvario-mfisso lognormal.xlsx
+++ b/analysis/Experiment2/Response Time Xvario-mfisso lognormal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\Experiment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEB76C5-B808-47B7-B82D-760C96DE6825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE811348-0258-4BE0-ADB4-7CC452E76DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E88A4DEA-8D71-4184-9B1D-5646642C1B59}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="6">
   <si>
     <t>Experiment</t>
   </si>
@@ -57,6 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2979,6 +2983,2885 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Response</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Time for m=0.5s</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0.01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$81:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$45:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0573-43D0-8E1F-754F1084D242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0.05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$81:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$51:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.37E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0573-43D0-8E1F-754F1084D242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0.5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$81:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$57:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0573-43D0-8E1F-754F1084D242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$81:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$63:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.44119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0573-43D0-8E1F-754F1084D242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$81:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$69:$E$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56559999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0573-43D0-8E1F-754F1084D242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>X=10s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$81:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$75:$E$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4806999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4503999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4329000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2627999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0573-43D0-8E1F-754F1084D242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>X=50s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$81:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$81:$E$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24.600200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.1675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.7027</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.0000">
+                  <c:v>19.369499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.798299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0573-43D0-8E1F-754F1084D242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="657874400"/>
+        <c:axId val="595608016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="657874400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Interarrival Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> k [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595608016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="595608016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Response</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Time [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657874400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Response Time for m=0.5s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k=9ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$45,Foglio1!$B$52,Foglio1!$B$57,Foglio1!$B$63,Foglio1!$B$70,Foglio1!$B$75,Foglio1!$B$81)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$45,Foglio1!$E$51,Foglio1!$E$57,Foglio1!$E$63,Foglio1!$E$69,Foglio1!$E$75,Foglio1!$E$81)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.600200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9AD-4B08-8449-0D9787CA7146}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k=10ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$45,Foglio1!$B$52,Foglio1!$B$57,Foglio1!$B$63,Foglio1!$B$70,Foglio1!$B$75,Foglio1!$B$81)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$46,Foglio1!$E$52,Foglio1!$E$58,Foglio1!$E$64,Foglio1!$E$70,Foglio1!$E$76,Foglio1!$E$82)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4806999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.1675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9AD-4B08-8449-0D9787CA7146}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>k=13ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$45,Foglio1!$B$52,Foglio1!$B$57,Foglio1!$B$63,Foglio1!$B$70,Foglio1!$B$75,Foglio1!$B$81)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$47,Foglio1!$E$53,Foglio1!$E$59,Foglio1!$E$65,Foglio1!$E$71,Foglio1!$E$77,Foglio1!$E$83)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.37E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4503999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F9AD-4B08-8449-0D9787CA7146}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>k=15ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$45,Foglio1!$B$52,Foglio1!$B$57,Foglio1!$B$63,Foglio1!$B$70,Foglio1!$B$75,Foglio1!$B$81)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$48,Foglio1!$E$54,Foglio1!$E$60,Foglio1!$E$66,Foglio1!$E$72,Foglio1!$E$78,Foglio1!$E$84)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.7027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F9AD-4B08-8449-0D9787CA7146}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>k=20ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$45,Foglio1!$B$52,Foglio1!$B$57,Foglio1!$B$63,Foglio1!$B$70,Foglio1!$B$75,Foglio1!$B$81)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$49,Foglio1!$E$55,Foglio1!$E$61,Foglio1!$E$67,Foglio1!$E$73,Foglio1!$E$79,Foglio1!$E$85)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4329000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.0000">
+                  <c:v>19.369499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F9AD-4B08-8449-0D9787CA7146}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>k=50ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$45,Foglio1!$B$52,Foglio1!$B$57,Foglio1!$B$63,Foglio1!$B$70,Foglio1!$B$75,Foglio1!$B$81)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$50,Foglio1!$E$56,Foglio1!$E$62,Foglio1!$E$68,Foglio1!$E$74,Foglio1!$E$80,Foglio1!$E$86)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2627999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.798299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F9AD-4B08-8449-0D9787CA7146}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="655583904"/>
+        <c:axId val="595610096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="655583904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Interarrival Time k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595610096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="595610096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Response Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655583904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Response Time for m=0.5s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12003937007874016"/>
+          <c:y val="0.14351851851851852"/>
+          <c:w val="0.68829396325459313"/>
+          <c:h val="0.65648950131233585"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$57:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$45:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E2B-4C34-9C37-F9D5B4F66098}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$57:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$51:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.37E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E2B-4C34-9C37-F9D5B4F66098}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$57:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$57:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0E2B-4C34-9C37-F9D5B4F66098}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$57:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$63:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.44119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0E2B-4C34-9C37-F9D5B4F66098}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$57:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$69:$E$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56559999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0E2B-4C34-9C37-F9D5B4F66098}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="745943440"/>
+        <c:axId val="493798592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="745943440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Interarrival</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Time k [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493798592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493798592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Response Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745943440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3099,6 +5982,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4106,6 +7109,1515 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4713,6 +9225,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20481EFE-9B4F-4192-8610-4DCB6E3453A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8FCC49-BBFD-4E1C-B8CF-E6735ED1DEC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E224D6-FC3D-4522-B437-D697D6ACF793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5018,10 +9638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FB2FAF-4028-4D74-83CE-7CB89811884E}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5761,8 +10381,723 @@
         <v>3.9887000000000001</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0.01</v>
+      </c>
+      <c r="C45">
+        <v>0.5</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0.01</v>
+      </c>
+      <c r="C46">
+        <v>0.5</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0.01</v>
+      </c>
+      <c r="C47">
+        <v>0.5</v>
+      </c>
+      <c r="D47">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0.01</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0.01</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0.01</v>
+      </c>
+      <c r="C50">
+        <v>0.5</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>0.05</v>
+      </c>
+      <c r="C51">
+        <v>0.5</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>0.05</v>
+      </c>
+      <c r="C52">
+        <v>0.5</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>0.05</v>
+      </c>
+      <c r="C53">
+        <v>0.5</v>
+      </c>
+      <c r="D53">
+        <v>13</v>
+      </c>
+      <c r="E53">
+        <v>1.37E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0.05</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>0.05</v>
+      </c>
+      <c r="C55">
+        <v>0.5</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0.05</v>
+      </c>
+      <c r="C56">
+        <v>0.5</v>
+      </c>
+      <c r="D56">
+        <v>50</v>
+      </c>
+      <c r="E56">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>0.5</v>
+      </c>
+      <c r="C57">
+        <v>0.5</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>0.5</v>
+      </c>
+      <c r="C58">
+        <v>0.5</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>0.5</v>
+      </c>
+      <c r="C59">
+        <v>0.5</v>
+      </c>
+      <c r="D59">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+      <c r="D60">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>0.5</v>
+      </c>
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>0.5</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62">
+        <v>50</v>
+      </c>
+      <c r="E62">
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0.5</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>0.44119999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0.5</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>0.47310000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0.5</v>
+      </c>
+      <c r="D65">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>0.48089999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0.5</v>
+      </c>
+      <c r="D66">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>0.45629999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0.5</v>
+      </c>
+      <c r="D67">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>0.43259999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0.5</v>
+      </c>
+      <c r="D68">
+        <v>50</v>
+      </c>
+      <c r="E68">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>0.5</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>0.5</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>0.56579999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>0.5</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <v>0.55589999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>0.5</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>0.57369999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>0.5</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <v>0.57789999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>50</v>
+      </c>
+      <c r="E74">
+        <v>0.56559999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>0.5</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>1.4893000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>0.5</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>1.4806999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>0.5</v>
+      </c>
+      <c r="D77">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>1.4503999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>0.5</v>
+      </c>
+      <c r="D78">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>1.4919</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>0.5</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>1.4329000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>0.5</v>
+      </c>
+      <c r="D80">
+        <v>50</v>
+      </c>
+      <c r="E80">
+        <v>1.2627999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <v>0.5</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>24.600200000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>50</v>
+      </c>
+      <c r="C82">
+        <v>0.5</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>24.1675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>0.5</v>
+      </c>
+      <c r="D83">
+        <v>13</v>
+      </c>
+      <c r="E83">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>50</v>
+      </c>
+      <c r="C84">
+        <v>0.5</v>
+      </c>
+      <c r="D84">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>21.7027</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>50</v>
+      </c>
+      <c r="C85">
+        <v>0.5</v>
+      </c>
+      <c r="D85">
+        <v>20</v>
+      </c>
+      <c r="E85" s="1">
+        <v>19.369499999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>50</v>
+      </c>
+      <c r="C86">
+        <v>0.5</v>
+      </c>
+      <c r="D86">
+        <v>50</v>
+      </c>
+      <c r="E86">
+        <v>14.798299999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/analysis/Experiment2/Response Time Xvario-mfisso lognormal.xlsx
+++ b/analysis/Experiment2/Response Time Xvario-mfisso lognormal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\Experiment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE811348-0258-4BE0-ADB4-7CC452E76DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E59588A-8C0A-4AE7-BCBC-DD13CB4A91F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E88A4DEA-8D71-4184-9B1D-5646642C1B59}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="6">
   <si>
     <t>Experiment</t>
   </si>
@@ -5862,6 +5862,2946 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Response</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Time for m=4,5s</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$124:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$88:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0440-4EF2-9856-58E12500395A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$124:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$94:$E$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0440-4EF2-9856-58E12500395A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$124:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$100:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.56E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0440-4EF2-9856-58E12500395A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$124:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$106:$E$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0440-4EF2-9856-58E12500395A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$124:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$112:$E$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44740000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0440-4EF2-9856-58E12500395A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>X=10s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$124:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$118:$E$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.62139999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25979999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0440-4EF2-9856-58E12500395A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>X=50s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$124:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$124:$E$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.5266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0245999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5564999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6637000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#.##00000">
+                  <c:v>5.1685999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6985999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0440-4EF2-9856-58E12500395A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="552612704"/>
+        <c:axId val="648088496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="552612704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648088496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="648088496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552612704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time for m=4,5s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$88:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95F6-413B-AE8F-6E25F86058DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$94:$E$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-95F6-413B-AE8F-6E25F86058DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$100:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.56E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-95F6-413B-AE8F-6E25F86058DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$106:$E$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-95F6-413B-AE8F-6E25F86058DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$112:$E$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44740000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-95F6-413B-AE8F-6E25F86058DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>X=10s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$118:$E$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.62139999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25979999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-95F6-413B-AE8F-6E25F86058DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="538116080"/>
+        <c:axId val="648045648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="538116080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648045648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="648045648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538116080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time for m=4,5s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k=9ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$88,Foglio1!$B$94,Foglio1!$B$100,Foglio1!$B$106,Foglio1!$B$112,Foglio1!$B$118,Foglio1!$B$124)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$88,Foglio1!$E$94,Foglio1!$E$100,Foglio1!$E$106,Foglio1!$E$112,Foglio1!$E$118,Foglio1!$E$124)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62139999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5266999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A58F-4B5C-A221-F0E4A526720B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k=10ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$88,Foglio1!$B$94,Foglio1!$B$100,Foglio1!$B$106,Foglio1!$B$112,Foglio1!$B$118,Foglio1!$B$124)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$89,Foglio1!$E$95,Foglio1!$E$101,Foglio1!$E$107,Foglio1!$E$113,Foglio1!$E$119,Foglio1!$E$125)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0245999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A58F-4B5C-A221-F0E4A526720B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>k=13ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$88,Foglio1!$B$94,Foglio1!$B$100,Foglio1!$B$106,Foglio1!$B$112,Foglio1!$B$118,Foglio1!$B$124)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$90,Foglio1!$E$96,Foglio1!$E$102,Foglio1!$E$108,Foglio1!$E$114,Foglio1!$E$120,Foglio1!$E$126)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5564999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A58F-4B5C-A221-F0E4A526720B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>k=15ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$88,Foglio1!$B$94,Foglio1!$B$100,Foglio1!$B$106,Foglio1!$B$112,Foglio1!$B$118,Foglio1!$B$124)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$91,Foglio1!$E$97,Foglio1!$E$103,Foglio1!$E$109,Foglio1!$E$115,Foglio1!$E$121,Foglio1!$E$127)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6637000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A58F-4B5C-A221-F0E4A526720B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>k=20ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$88,Foglio1!$B$94,Foglio1!$B$100,Foglio1!$B$106,Foglio1!$B$112,Foglio1!$B$118,Foglio1!$B$124)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$92,Foglio1!$E$98,Foglio1!$E$104,Foglio1!$E$110,Foglio1!$E$116,Foglio1!$E$122,Foglio1!$E$128)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.0000">
+                  <c:v>5.1685999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A58F-4B5C-A221-F0E4A526720B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>k=50ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$88,Foglio1!$B$94,Foglio1!$B$100,Foglio1!$B$106,Foglio1!$B$112,Foglio1!$B$118,Foglio1!$B$124)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$93,Foglio1!$E$99,Foglio1!$E$105,Foglio1!$E$111,Foglio1!$E$117,Foglio1!$E$123,Foglio1!$E$129)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.56E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6985999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A58F-4B5C-A221-F0E4A526720B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="469770768"/>
+        <c:axId val="648094736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="469770768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Malus X [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648094736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="648094736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469770768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6102,6 +9042,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -8618,6 +11678,1515 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9333,6 +13902,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E09001-24EB-4B5E-A540-439ED44655A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50293C8E-DDDD-4FA8-B73A-2CB3628412AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5B23B8-1C28-474D-B9A3-547488B95575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9638,10 +14315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FB2FAF-4028-4D74-83CE-7CB89811884E}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="O119" sqref="O119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11095,6 +15772,720 @@
         <v>14.798299999999999</v>
       </c>
     </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>0.01</v>
+      </c>
+      <c r="C88">
+        <v>4.5</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>0.01</v>
+      </c>
+      <c r="C89">
+        <v>4.5</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>0.01</v>
+      </c>
+      <c r="C90">
+        <v>4.5</v>
+      </c>
+      <c r="D90">
+        <v>13</v>
+      </c>
+      <c r="E90">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>0.01</v>
+      </c>
+      <c r="C91">
+        <v>4.5</v>
+      </c>
+      <c r="D91">
+        <v>15</v>
+      </c>
+      <c r="E91">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>0.01</v>
+      </c>
+      <c r="C92">
+        <v>4.5</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>0.01</v>
+      </c>
+      <c r="C93">
+        <v>4.5</v>
+      </c>
+      <c r="D93">
+        <v>50</v>
+      </c>
+      <c r="E93">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>0.05</v>
+      </c>
+      <c r="C94">
+        <v>4.5</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>0.05</v>
+      </c>
+      <c r="C95">
+        <v>4.5</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>1.24E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>0.05</v>
+      </c>
+      <c r="C96">
+        <v>4.5</v>
+      </c>
+      <c r="D96">
+        <v>13</v>
+      </c>
+      <c r="E96">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>0.05</v>
+      </c>
+      <c r="C97">
+        <v>4.5</v>
+      </c>
+      <c r="D97">
+        <v>15</v>
+      </c>
+      <c r="E97">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>0.05</v>
+      </c>
+      <c r="C98">
+        <v>4.5</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>0.05</v>
+      </c>
+      <c r="C99">
+        <v>4.5</v>
+      </c>
+      <c r="D99">
+        <v>50</v>
+      </c>
+      <c r="E99">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>0.5</v>
+      </c>
+      <c r="C100">
+        <v>4.5</v>
+      </c>
+      <c r="D100">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>0.5</v>
+      </c>
+      <c r="C101">
+        <v>4.5</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>4.3499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102">
+        <v>4.5</v>
+      </c>
+      <c r="D102">
+        <v>13</v>
+      </c>
+      <c r="E102">
+        <v>4.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>0.5</v>
+      </c>
+      <c r="C103">
+        <v>4.5</v>
+      </c>
+      <c r="D103">
+        <v>15</v>
+      </c>
+      <c r="E103">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>0.5</v>
+      </c>
+      <c r="C104">
+        <v>4.5</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>0.5</v>
+      </c>
+      <c r="C105">
+        <v>4.5</v>
+      </c>
+      <c r="D105">
+        <v>50</v>
+      </c>
+      <c r="E105">
+        <v>3.56E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>4.5</v>
+      </c>
+      <c r="D106">
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>0.1419</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>4.5</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>4.5</v>
+      </c>
+      <c r="D108">
+        <v>13</v>
+      </c>
+      <c r="E108">
+        <v>0.1323</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>4.5</v>
+      </c>
+      <c r="D109">
+        <v>15</v>
+      </c>
+      <c r="E109">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>4.5</v>
+      </c>
+      <c r="D110">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>0.11990000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>4.5</v>
+      </c>
+      <c r="D111">
+        <v>50</v>
+      </c>
+      <c r="E111">
+        <v>0.1179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>4.5</v>
+      </c>
+      <c r="D112">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>0.5454</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>4.5</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="E113">
+        <v>0.54749999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>4.5</v>
+      </c>
+      <c r="D114">
+        <v>13</v>
+      </c>
+      <c r="E114">
+        <v>0.49659999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>4.5</v>
+      </c>
+      <c r="D115">
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>0.4667</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>4.5</v>
+      </c>
+      <c r="D116">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>0.45860000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>4.5</v>
+      </c>
+      <c r="D117">
+        <v>50</v>
+      </c>
+      <c r="E117">
+        <v>0.44740000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>4.5</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>0.62139999999999995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>4.5</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>0.55779999999999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>4.5</v>
+      </c>
+      <c r="D120">
+        <v>13</v>
+      </c>
+      <c r="E120">
+        <v>0.4627</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>4.5</v>
+      </c>
+      <c r="D121">
+        <v>15</v>
+      </c>
+      <c r="E121">
+        <v>0.39489999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>4.5</v>
+      </c>
+      <c r="D122">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>4.5</v>
+      </c>
+      <c r="D123">
+        <v>50</v>
+      </c>
+      <c r="E123">
+        <v>0.25979999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+      <c r="C124">
+        <v>4.5</v>
+      </c>
+      <c r="D124">
+        <v>9</v>
+      </c>
+      <c r="E124">
+        <v>9.5266999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+      <c r="C125">
+        <v>4.5</v>
+      </c>
+      <c r="D125">
+        <v>10</v>
+      </c>
+      <c r="E125">
+        <v>9.0245999999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+      <c r="C126">
+        <v>4.5</v>
+      </c>
+      <c r="D126">
+        <v>13</v>
+      </c>
+      <c r="E126">
+        <v>7.5564999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>50</v>
+      </c>
+      <c r="C127">
+        <v>4.5</v>
+      </c>
+      <c r="D127">
+        <v>15</v>
+      </c>
+      <c r="E127">
+        <v>6.6637000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>4.5</v>
+      </c>
+      <c r="D128">
+        <v>20</v>
+      </c>
+      <c r="E128" s="1">
+        <v>5.1685999999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>50</v>
+      </c>
+      <c r="C129">
+        <v>4.5</v>
+      </c>
+      <c r="D129">
+        <v>50</v>
+      </c>
+      <c r="E129">
+        <v>4.6985999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/analysis/Experiment2/Response Time Xvario-mfisso lognormal.xlsx
+++ b/analysis/Experiment2/Response Time Xvario-mfisso lognormal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\Experiment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E59588A-8C0A-4AE7-BCBC-DD13CB4A91F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D8D1BA-D378-4F8A-A755-BC5B89158973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E88A4DEA-8D71-4184-9B1D-5646642C1B59}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="6">
   <si>
     <t>Experiment</t>
   </si>
@@ -1074,6 +1074,2850 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2127375503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time for m=12s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$131:$E$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CC7-4D52-B385-6EC019B1E4F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$137:$E$142</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6CC7-4D52-B385-6EC019B1E4F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$143:$E$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8599999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6CC7-4D52-B385-6EC019B1E4F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$149:$E$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3200000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0500000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6CC7-4D52-B385-6EC019B1E4F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$155:$E$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6CC7-4D52-B385-6EC019B1E4F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>X=10s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$161:$E$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1505000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6117999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3053999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2564000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4970999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6CC7-4D52-B385-6EC019B1E4F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>X=50s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$167:$E$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.6759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.057499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1802999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#.##00000">
+                  <c:v>5.3827999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7825000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6CC7-4D52-B385-6EC019B1E4F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="458202623"/>
+        <c:axId val="363209615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="458202623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363209615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="363209615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458202623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Response Time for m=12s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$131:$E$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D30-45E7-A383-65FE38510A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$137:$E$142</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D30-45E7-A383-65FE38510A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$143:$E$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8599999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9D30-45E7-A383-65FE38510A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$149:$E$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3200000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0500000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9D30-45E7-A383-65FE38510A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$131:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$155:$E$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9D30-45E7-A383-65FE38510A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="458400079"/>
+        <c:axId val="363220015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="458400079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363220015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="363220015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458400079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time for m=12s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k=9ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$131,Foglio1!$B$137,Foglio1!$B$143,Foglio1!$B$149,Foglio1!$B$155,Foglio1!$B$161,Foglio1!$B$167)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$131,Foglio1!$E$137,Foglio1!$E$143,Foglio1!$E$149,Foglio1!$E$155,Foglio1!$E$161,Foglio1!$E$167)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3200000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1505000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.6759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7239-4EB4-89DC-6E872D605692}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k=10ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$131,Foglio1!$B$137,Foglio1!$B$143,Foglio1!$B$149,Foglio1!$B$155,Foglio1!$B$161,Foglio1!$B$167)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$132,Foglio1!$E$138,Foglio1!$E$144,Foglio1!$E$150,Foglio1!$E$156,Foglio1!$E$162,Foglio1!$E$168)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.057499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7239-4EB4-89DC-6E872D605692}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>k=13ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$131,Foglio1!$B$137,Foglio1!$B$143,Foglio1!$B$149,Foglio1!$B$155,Foglio1!$B$161,Foglio1!$B$167)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$133,Foglio1!$E$139,Foglio1!$E$145,Foglio1!$E$151,Foglio1!$E$157,Foglio1!$E$163,Foglio1!$E$169)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6117999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2530000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7239-4EB4-89DC-6E872D605692}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>k=15ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$131,Foglio1!$B$137,Foglio1!$B$143,Foglio1!$B$149,Foglio1!$B$155,Foglio1!$B$161,Foglio1!$B$167)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$134,Foglio1!$E$140,Foglio1!$E$146,Foglio1!$E$152,Foglio1!$E$158,Foglio1!$E$164,Foglio1!$E$170)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3053999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1802999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7239-4EB4-89DC-6E872D605692}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>k=20ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$131,Foglio1!$B$137,Foglio1!$B$143,Foglio1!$B$149,Foglio1!$B$155,Foglio1!$B$161,Foglio1!$B$167)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$135,Foglio1!$E$141,Foglio1!$E$147,Foglio1!$E$153,Foglio1!$E$159,Foglio1!$E$165,Foglio1!$E$171)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2564000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.0000">
+                  <c:v>5.3827999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7239-4EB4-89DC-6E872D605692}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>k=50ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$131,Foglio1!$B$137,Foglio1!$B$143,Foglio1!$B$149,Foglio1!$B$155,Foglio1!$B$161,Foglio1!$B$167)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$136,Foglio1!$E$142,Foglio1!$E$148,Foglio1!$E$154,Foglio1!$E$160,Foglio1!$E$166,Foglio1!$E$172)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4970999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7825000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7239-4EB4-89DC-6E872D605692}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="192091023"/>
+        <c:axId val="363214191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="192091023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Malus X [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363214191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="363214191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192091023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6569,7 +9413,7 @@
                 <c:pt idx="3">
                   <c:v>6.6637000000000004</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#.##00000">
+                <c:pt idx="4" formatCode="#,##0.0000">
                   <c:v>5.1685999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
@@ -8842,6 +11686,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9163,6 +12127,1515 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14015,6 +18488,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Grafico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F444260-FE0F-46BC-A81D-F056CE8A8076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Grafico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77844E28-18C5-4B93-A4E5-6016C589402A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Grafico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1E0FFE-533A-44AA-8113-23C199787825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14315,10 +18896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FB2FAF-4028-4D74-83CE-7CB89811884E}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="O119" sqref="O119"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16486,6 +21067,720 @@
         <v>4.6985999999999999</v>
       </c>
     </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>0.01</v>
+      </c>
+      <c r="C131">
+        <v>12</v>
+      </c>
+      <c r="D131">
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>0.01</v>
+      </c>
+      <c r="C132">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>0.01</v>
+      </c>
+      <c r="C133">
+        <v>12</v>
+      </c>
+      <c r="D133">
+        <v>13</v>
+      </c>
+      <c r="E133">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>0.01</v>
+      </c>
+      <c r="C134">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>15</v>
+      </c>
+      <c r="E134">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>0.01</v>
+      </c>
+      <c r="C135">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>0.01</v>
+      </c>
+      <c r="C136">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>50</v>
+      </c>
+      <c r="E136">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>0.05</v>
+      </c>
+      <c r="C137">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>9</v>
+      </c>
+      <c r="E137">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>0.05</v>
+      </c>
+      <c r="C138">
+        <v>12</v>
+      </c>
+      <c r="D138">
+        <v>10</v>
+      </c>
+      <c r="E138">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>0.05</v>
+      </c>
+      <c r="C139">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>13</v>
+      </c>
+      <c r="E139">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>0.05</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>15</v>
+      </c>
+      <c r="E140">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>0.05</v>
+      </c>
+      <c r="C141">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>0.05</v>
+      </c>
+      <c r="C142">
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>50</v>
+      </c>
+      <c r="E142">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>0.5</v>
+      </c>
+      <c r="C143">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>9</v>
+      </c>
+      <c r="E143">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>0.5</v>
+      </c>
+      <c r="C144">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>0.5</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>13</v>
+      </c>
+      <c r="E145">
+        <v>2.29E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>0.5</v>
+      </c>
+      <c r="C146">
+        <v>12</v>
+      </c>
+      <c r="D146">
+        <v>15</v>
+      </c>
+      <c r="E146">
+        <v>2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>0.5</v>
+      </c>
+      <c r="C147">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>20</v>
+      </c>
+      <c r="E147">
+        <v>1.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>0.5</v>
+      </c>
+      <c r="C148">
+        <v>12</v>
+      </c>
+      <c r="D148">
+        <v>50</v>
+      </c>
+      <c r="E148">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <v>6.3200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>6.2199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>13</v>
+      </c>
+      <c r="E151">
+        <v>5.8400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>15</v>
+      </c>
+      <c r="E152">
+        <v>5.7700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>20</v>
+      </c>
+      <c r="E153">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>12</v>
+      </c>
+      <c r="D154">
+        <v>50</v>
+      </c>
+      <c r="E154">
+        <v>5.0500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>12</v>
+      </c>
+      <c r="D155">
+        <v>9</v>
+      </c>
+      <c r="E155">
+        <v>0.2097</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>12</v>
+      </c>
+      <c r="D156">
+        <v>10</v>
+      </c>
+      <c r="E156">
+        <v>0.20569999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>12</v>
+      </c>
+      <c r="D157">
+        <v>13</v>
+      </c>
+      <c r="E157">
+        <v>0.20860000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>12</v>
+      </c>
+      <c r="D158">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>0.2051</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>20</v>
+      </c>
+      <c r="E159">
+        <v>0.1779</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>50</v>
+      </c>
+      <c r="E160">
+        <v>0.1784</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <v>9</v>
+      </c>
+      <c r="E161">
+        <v>4.1505000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>10</v>
+      </c>
+      <c r="C162">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>10</v>
+      </c>
+      <c r="E162">
+        <v>4.4939</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>13</v>
+      </c>
+      <c r="E163">
+        <v>5.6117999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>15</v>
+      </c>
+      <c r="E164">
+        <v>6.3053999999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>12</v>
+      </c>
+      <c r="D165">
+        <v>20</v>
+      </c>
+      <c r="E165">
+        <v>6.2564000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>10</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+      <c r="D166">
+        <v>50</v>
+      </c>
+      <c r="E166">
+        <v>4.4970999999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>50</v>
+      </c>
+      <c r="C167">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>10.6759</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>50</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168">
+        <v>10</v>
+      </c>
+      <c r="E168">
+        <v>10.057499999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>50</v>
+      </c>
+      <c r="C169">
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>13</v>
+      </c>
+      <c r="E169">
+        <v>8.2530000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>50</v>
+      </c>
+      <c r="C170">
+        <v>12</v>
+      </c>
+      <c r="D170">
+        <v>15</v>
+      </c>
+      <c r="E170">
+        <v>7.1802999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>50</v>
+      </c>
+      <c r="C171">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>20</v>
+      </c>
+      <c r="E171" s="1">
+        <v>5.3827999999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>50</v>
+      </c>
+      <c r="C172">
+        <v>12</v>
+      </c>
+      <c r="D172">
+        <v>50</v>
+      </c>
+      <c r="E172">
+        <v>3.7825000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/analysis/Experiment2/Response Time Xvario-mfisso lognormal.xlsx
+++ b/analysis/Experiment2/Response Time Xvario-mfisso lognormal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\Experiment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clari\Desktop\Git\PECSNproject\analysis\Experiment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D8D1BA-D378-4F8A-A755-BC5B89158973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD59817-FA5B-4798-AE3C-59C8E732E3D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E88A4DEA-8D71-4184-9B1D-5646642C1B59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E88A4DEA-8D71-4184-9B1D-5646642C1B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1862,7 +1862,7 @@
                 <c:pt idx="3">
                   <c:v>7.1802999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#.##00000">
+                <c:pt idx="4" formatCode="#,##0.0000">
                   <c:v>5.3827999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
@@ -3918,6 +3918,1812 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="192091023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time for m=4,5s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30615266841644795"/>
+          <c:y val="4.4444444444444446E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$88:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FC9-40C5-BA0A-B3B6DD86AE2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$94:$E$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FC9-40C5-BA0A-B3B6DD86AE2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$100:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.56E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2FC9-40C5-BA0A-B3B6DD86AE2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$106:$E$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2FC9-40C5-BA0A-B3B6DD86AE2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$112:$E$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44740000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2FC9-40C5-BA0A-B3B6DD86AE2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="538116080"/>
+        <c:axId val="648045648"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>X=10s</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$D$118:$D$123</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$E$118:$E$123</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.62139999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.55779999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.4627</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.39489999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.31900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.25979999999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-2FC9-40C5-BA0A-B3B6DD86AE2C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="538116080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648045648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="648045648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538116080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time for m=4,5s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$88:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5517-4A65-9FF2-1EE37374A5B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$94:$E$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5517-4A65-9FF2-1EE37374A5B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$100:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.56E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5517-4A65-9FF2-1EE37374A5B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$106:$E$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5517-4A65-9FF2-1EE37374A5B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$112:$E$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44740000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5517-4A65-9FF2-1EE37374A5B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>X=10s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$118:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$118:$E$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.62139999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25979999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5517-4A65-9FF2-1EE37374A5B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="538116080"/>
+        <c:axId val="648045648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="538116080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648045648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="648045648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538116080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11806,6 +13612,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13636,6 +15522,1012 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18596,6 +21488,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Grafico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E480BE1D-0444-4022-BD7A-DE5B6B0F6997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Grafico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EA804A-EF71-4AD6-9AF5-36D7C58DE4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18894,21 +21862,593 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FB2FAF-4028-4D74-83CE-7CB89811884E}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="K165" sqref="K165"/>
+    <sheetView tabSelected="1" topLeftCell="D105" workbookViewId="0">
+      <selection activeCell="S125" sqref="S125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="4" width="12.88671875" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18925,7 +22465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -18942,7 +22482,7 @@
         <v>1.3578E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18959,7 +22499,7 @@
         <v>1.2037000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -18976,7 +22516,7 @@
         <v>1.0369E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -18993,7 +22533,7 @@
         <v>9.7590000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -19010,7 +22550,7 @@
         <v>8.9720000000000008E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -19027,7 +22567,7 @@
         <v>7.7929999999999996E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -19044,7 +22584,7 @@
         <v>1.4683999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -19061,7 +22601,7 @@
         <v>1.3199000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -19078,7 +22618,7 @@
         <v>1.1502E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -19095,7 +22635,7 @@
         <v>1.0821000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -19112,7 +22652,7 @@
         <v>9.9810000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -19129,7 +22669,7 @@
         <v>8.6599999999999993E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -19146,7 +22686,7 @@
         <v>0.11641600000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -19163,7 +22703,7 @@
         <v>0.11232300000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -19180,7 +22720,7 @@
         <v>0.106089</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -19197,7 +22737,7 @@
         <v>0.100512</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -19214,7 +22754,7 @@
         <v>9.4624E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -19231,7 +22771,7 @@
         <v>9.1453000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -19248,7 +22788,7 @@
         <v>0.30686799999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -19265,7 +22805,7 @@
         <v>0.32528000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -19282,7 +22822,7 @@
         <v>0.35744500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -19299,7 +22839,7 @@
         <v>0.34900799999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -19316,7 +22856,7 @@
         <v>0.29213299999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -19333,7 +22873,7 @@
         <v>0.35212100000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -19350,7 +22890,7 @@
         <v>0.12687699999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -19367,7 +22907,7 @@
         <v>0.108694</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -19384,7 +22924,7 @@
         <v>9.6531000000000006E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -19401,7 +22941,7 @@
         <v>9.2711000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -19418,7 +22958,7 @@
         <v>9.1416999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -19435,7 +22975,7 @@
         <v>9.1576000000000005E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -19452,7 +22992,7 @@
         <v>0.76424499999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -19469,7 +23009,7 @@
         <v>0.80299500000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -19486,7 +23026,7 @@
         <v>0.78325400000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -19503,7 +23043,7 @@
         <v>0.79547599999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -19520,7 +23060,7 @@
         <v>0.700909</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -19537,7 +23077,7 @@
         <v>0.52966800000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -19554,7 +23094,7 @@
         <v>10.2174</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -19571,7 +23111,7 @@
         <v>9.8732000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -19588,7 +23128,7 @@
         <v>8.8358000000000008</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -19605,7 +23145,7 @@
         <v>8.2283000000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -19622,7 +23162,7 @@
         <v>6.6207000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -19639,7 +23179,7 @@
         <v>3.9887000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -19656,7 +23196,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -19673,7 +23213,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -19690,7 +23230,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -19707,7 +23247,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -19724,7 +23264,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -19741,7 +23281,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -19758,7 +23298,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -19775,7 +23315,7 @@
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -19792,7 +23332,7 @@
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -19809,7 +23349,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -19826,7 +23366,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -19843,7 +23383,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -19860,7 +23400,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -19877,7 +23417,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -19894,7 +23434,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -19911,7 +23451,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -19928,7 +23468,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -19945,7 +23485,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -19962,7 +23502,7 @@
         <v>0.44119999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -19979,7 +23519,7 @@
         <v>0.47310000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -19996,7 +23536,7 @@
         <v>0.48089999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -20013,7 +23553,7 @@
         <v>0.45629999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -20030,7 +23570,7 @@
         <v>0.43259999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -20047,7 +23587,7 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -20064,7 +23604,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -20081,7 +23621,7 @@
         <v>0.56579999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -20098,7 +23638,7 @@
         <v>0.55589999999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -20115,7 +23655,7 @@
         <v>0.57369999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -20132,7 +23672,7 @@
         <v>0.57789999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -20149,7 +23689,7 @@
         <v>0.56559999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -20166,7 +23706,7 @@
         <v>1.4893000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -20183,7 +23723,7 @@
         <v>1.4806999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -20200,7 +23740,7 @@
         <v>1.4503999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -20217,7 +23757,7 @@
         <v>1.4919</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -20234,7 +23774,7 @@
         <v>1.4329000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -20251,7 +23791,7 @@
         <v>1.2627999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -20268,7 +23808,7 @@
         <v>24.600200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -20285,7 +23825,7 @@
         <v>24.1675</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -20302,7 +23842,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -20319,7 +23859,7 @@
         <v>21.7027</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -20336,7 +23876,7 @@
         <v>19.369499999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -20353,7 +23893,7 @@
         <v>14.798299999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -20370,7 +23910,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -20387,7 +23927,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -20404,7 +23944,7 @@
         <v>1.03E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -20421,7 +23961,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -20438,7 +23978,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -20455,7 +23995,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -20472,7 +24012,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -20489,7 +24029,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -20506,7 +24046,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -20523,7 +24063,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -20540,7 +24080,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -20557,7 +24097,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -20574,7 +24114,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -20591,7 +24131,7 @@
         <v>4.3499999999999997E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -20608,7 +24148,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -20625,7 +24165,7 @@
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -20642,7 +24182,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -20659,7 +24199,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -20676,7 +24216,7 @@
         <v>0.1419</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -20693,7 +24233,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -20710,7 +24250,7 @@
         <v>0.1323</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -20727,7 +24267,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -20744,7 +24284,7 @@
         <v>0.11990000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -20761,7 +24301,7 @@
         <v>0.1179</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -20778,7 +24318,7 @@
         <v>0.5454</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -20795,7 +24335,7 @@
         <v>0.54749999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -20812,7 +24352,7 @@
         <v>0.49659999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -20829,7 +24369,7 @@
         <v>0.4667</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -20846,7 +24386,7 @@
         <v>0.45860000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -20863,7 +24403,7 @@
         <v>0.44740000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -20880,7 +24420,7 @@
         <v>0.62139999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -20897,7 +24437,7 @@
         <v>0.55779999999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -20914,7 +24454,7 @@
         <v>0.4627</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -20931,7 +24471,7 @@
         <v>0.39489999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -20948,7 +24488,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -20965,7 +24505,7 @@
         <v>0.25979999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -20982,7 +24522,7 @@
         <v>9.5266999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -20999,7 +24539,7 @@
         <v>9.0245999999999995</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -21016,7 +24556,7 @@
         <v>7.5564999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -21033,7 +24573,7 @@
         <v>6.6637000000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -21050,7 +24590,7 @@
         <v>5.1685999999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -21067,7 +24607,7 @@
         <v>4.6985999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1</v>
       </c>
@@ -21084,7 +24624,7 @@
         <v>1.41E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -21101,7 +24641,7 @@
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -21118,7 +24658,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -21135,7 +24675,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -21152,7 +24692,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1</v>
       </c>
@@ -21169,7 +24709,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -21186,7 +24726,7 @@
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -21203,7 +24743,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -21220,7 +24760,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1</v>
       </c>
@@ -21237,7 +24777,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -21254,7 +24794,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -21271,7 +24811,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -21288,7 +24828,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -21305,7 +24845,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1</v>
       </c>
@@ -21322,7 +24862,7 @@
         <v>2.29E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -21339,7 +24879,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -21356,7 +24896,7 @@
         <v>1.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -21373,7 +24913,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -21390,7 +24930,7 @@
         <v>6.3200000000000006E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -21407,7 +24947,7 @@
         <v>6.2199999999999998E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -21424,7 +24964,7 @@
         <v>5.8400000000000001E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -21441,7 +24981,7 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -21458,7 +24998,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -21475,7 +25015,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -21492,7 +25032,7 @@
         <v>0.2097</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -21509,7 +25049,7 @@
         <v>0.20569999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -21526,7 +25066,7 @@
         <v>0.20860000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -21543,7 +25083,7 @@
         <v>0.2051</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -21560,7 +25100,7 @@
         <v>0.1779</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -21577,7 +25117,7 @@
         <v>0.1784</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -21594,7 +25134,7 @@
         <v>4.1505000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -21611,7 +25151,7 @@
         <v>4.4939</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -21628,7 +25168,7 @@
         <v>5.6117999999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -21645,7 +25185,7 @@
         <v>6.3053999999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -21662,7 +25202,7 @@
         <v>6.2564000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -21679,7 +25219,7 @@
         <v>4.4970999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -21696,7 +25236,7 @@
         <v>10.6759</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -21713,7 +25253,7 @@
         <v>10.057499999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -21730,7 +25270,7 @@
         <v>8.2530000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -21747,7 +25287,7 @@
         <v>7.1802999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -21764,7 +25304,7 @@
         <v>5.3827999999999996</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1</v>
       </c>
